--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Nextcloud\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Documents\GitHub\OpenBCI\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE2FAE5-5421-47AA-B7A1-86E8C673A591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC1816-847C-4F0C-98CA-41AECEE78C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -199,6 +199,99 @@
   </si>
   <si>
     <t>Channel 7 and 8  weird behaviour</t>
+  </si>
+  <si>
+    <t>20240402_1</t>
+  </si>
+  <si>
+    <t>IMPEDANCE shorcircuited all channels g=24</t>
+  </si>
+  <si>
+    <t>Channel 1 and 3 werid behaviour</t>
+  </si>
+  <si>
+    <t>20240402_2</t>
+  </si>
+  <si>
+    <t>Channel 1, 2, 3 and 6 werid behaviour</t>
+  </si>
+  <si>
+    <t>20240402_3</t>
+  </si>
+  <si>
+    <t>20240402_4</t>
+  </si>
+  <si>
+    <t>Channel 1, 2 and 6 werid behaviour</t>
+  </si>
+  <si>
+    <t>20240403_1</t>
+  </si>
+  <si>
+    <t>250 Hz shortcirciuted all channels g=24</t>
+  </si>
+  <si>
+    <t>20240403_2</t>
+  </si>
+  <si>
+    <t>1000 Hz shortcirciuted all channels g=24</t>
+  </si>
+  <si>
+    <t>20240403_3</t>
+  </si>
+  <si>
+    <t>Channel 7 and 8 weird behaviour</t>
+  </si>
+  <si>
+    <t>20240403_4</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>22 kΩ</t>
+  </si>
+  <si>
+    <t>100 kΩ</t>
+  </si>
+  <si>
+    <t>22 Ω</t>
+  </si>
+  <si>
+    <t>22 kΩ bias shortcircuited</t>
+  </si>
+  <si>
+    <t>22 kΩ bias connected</t>
+  </si>
+  <si>
+    <t>g=1</t>
+  </si>
+  <si>
+    <t>g=2</t>
+  </si>
+  <si>
+    <t>g=4</t>
+  </si>
+  <si>
+    <t>g=6</t>
+  </si>
+  <si>
+    <t>g=8</t>
+  </si>
+  <si>
+    <t>g=12</t>
+  </si>
+  <si>
+    <t>impedance measurament</t>
+  </si>
+  <si>
+    <t>shortcircuited g=24</t>
+  </si>
+  <si>
+    <t>fs = 1000  Hz</t>
+  </si>
+  <si>
+    <t>fs = 250 Hz</t>
   </si>
 </sst>
 </file>
@@ -568,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E8C53-10ED-4216-AA70-9DB6CE1D21FB}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +673,7 @@
     <col min="2" max="2" width="50.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="54.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -599,7 +692,9 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -623,6 +718,9 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -637,6 +735,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -651,6 +752,9 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -665,6 +769,9 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -679,6 +786,9 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -693,6 +803,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -707,6 +820,9 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -721,6 +837,9 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -735,6 +854,9 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -749,6 +871,9 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -763,7 +888,9 @@
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -778,7 +905,9 @@
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -793,7 +922,9 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -808,7 +939,9 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -823,7 +956,9 @@
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -838,7 +973,9 @@
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -853,6 +990,9 @@
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -867,6 +1007,9 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -881,6 +1024,9 @@
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -895,6 +1041,9 @@
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -909,6 +1058,9 @@
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -923,6 +1075,9 @@
       <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -937,6 +1092,9 @@
       <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -951,6 +1109,9 @@
       <c r="D25" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -962,6 +1123,9 @@
       <c r="C26" t="s">
         <v>54</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -972,6 +1136,145 @@
       </c>
       <c r="C27" t="s">
         <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Documents\GitHub\OpenBCI\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC1816-847C-4F0C-98CA-41AECEE78C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DFDFB-A945-4A17-BB53-F8DD1EEDF2D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -292,6 +292,102 @@
   </si>
   <si>
     <t>fs = 250 Hz</t>
+  </si>
+  <si>
+    <t>20240418_1</t>
+  </si>
+  <si>
+    <t>20240418_2</t>
+  </si>
+  <si>
+    <t>1000 Hz bias P</t>
+  </si>
+  <si>
+    <t>1000 Hz bias N</t>
+  </si>
+  <si>
+    <t>No Bias</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>20240422_1</t>
+  </si>
+  <si>
+    <t>Agar commercial electrodes, no bias 1 2</t>
+  </si>
+  <si>
+    <t>20240422_2</t>
+  </si>
+  <si>
+    <t>Agar commercial electrodes, bias 3</t>
+  </si>
+  <si>
+    <t>Agar commercial electrodes, bias 2</t>
+  </si>
+  <si>
+    <t>20240422_3</t>
+  </si>
+  <si>
+    <t>20240422_4</t>
+  </si>
+  <si>
+    <t>Agar commercial electrodes, bias 1</t>
+  </si>
+  <si>
+    <t>20240422_5</t>
+  </si>
+  <si>
+    <t>20240422_6</t>
+  </si>
+  <si>
+    <t>20240422_7</t>
+  </si>
+  <si>
+    <t>20240422_8</t>
+  </si>
+  <si>
+    <t>20240422_9</t>
+  </si>
+  <si>
+    <t>20240422_10</t>
+  </si>
+  <si>
+    <t>20240422_11</t>
+  </si>
+  <si>
+    <t>20240422_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 Hz injection agar commercial electrodes, no bias 1 2</t>
+  </si>
+  <si>
+    <t>Injection near electrode 1</t>
+  </si>
+  <si>
+    <t>Injection near electrode 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 Hz injection agar commercial electrodes, bias 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 Hz injection agar commercial electrodes, bias 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 Hz injection agar commercial electrodes, bias 2</t>
+  </si>
+  <si>
+    <t>no Bias</t>
+  </si>
+  <si>
+    <t>Bias 3</t>
+  </si>
+  <si>
+    <t>Bias 2</t>
+  </si>
+  <si>
+    <t>Bias 1</t>
   </si>
 </sst>
 </file>
@@ -661,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E8C53-10ED-4216-AA70-9DB6CE1D21FB}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1373,184 @@
         <v>88</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Documents\GitHub\OpenBCI\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DFDFB-A945-4A17-BB53-F8DD1EEDF2D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26E596-CD57-4228-8DDC-798662D7E49D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -388,6 +388,48 @@
   </si>
   <si>
     <t>Bias 1</t>
+  </si>
+  <si>
+    <t>20240423_1</t>
+  </si>
+  <si>
+    <t>20240423_2</t>
+  </si>
+  <si>
+    <t>Agar commercal electrodes no bias 1 3</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
+    <t>Low deriva</t>
+  </si>
+  <si>
+    <t>20240423_3</t>
+  </si>
+  <si>
+    <t>20240423_4</t>
+  </si>
+  <si>
+    <t>20240423_5</t>
+  </si>
+  <si>
+    <t>20240423_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agar commercal electrodes si bias </t>
+  </si>
+  <si>
+    <t>Agar commercal electrodes no bias 1 2 electrode 3 terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agar commercal electrodes no Bias channel 3 Bias INV </t>
+  </si>
+  <si>
+    <t>Agar Bias celulose electrodes</t>
+  </si>
+  <si>
+    <t>Agar no bias celulose electrodes un a terra</t>
   </si>
 </sst>
 </file>
@@ -757,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E8C53-10ED-4216-AA70-9DB6CE1D21FB}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
@@ -766,7 +808,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="54.140625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -1551,6 +1593,66 @@
         <v>120</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Documents\GitHub\OpenBCI\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26E596-CD57-4228-8DDC-798662D7E49D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28A023C-5AED-4034-A2FE-8952CFAA90C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>Agar no bias celulose electrodes un a terra</t>
+  </si>
+  <si>
+    <t>20240424_1</t>
+  </si>
+  <si>
+    <t>20240424_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agar bias commercial electrodes with GND </t>
+  </si>
+  <si>
+    <t>Agar bias commercial electrodes with GND Ch3 with GND</t>
+  </si>
+  <si>
+    <t>Bias and GND</t>
+  </si>
+  <si>
+    <t>No Bias and GND</t>
   </si>
 </sst>
 </file>
@@ -799,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E8C53-10ED-4216-AA70-9DB6CE1D21FB}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="E52" sqref="A52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,6 +1646,9 @@
       <c r="B52" t="s">
         <v>131</v>
       </c>
+      <c r="E52" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1636,6 +1657,7 @@
       <c r="B53" t="s">
         <v>132</v>
       </c>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1651,6 +1673,28 @@
       </c>
       <c r="B55" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Documents\GitHub\OpenBCI\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28A023C-5AED-4034-A2FE-8952CFAA90C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08322242-310A-4FEE-8571-87BDF137BF75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>No Bias and GND</t>
+  </si>
+  <si>
+    <t>Bias celulose</t>
+  </si>
+  <si>
+    <t>No Bias celulose and GND</t>
   </si>
 </sst>
 </file>
@@ -819,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E8C53-10ED-4216-AA70-9DB6CE1D21FB}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="A52:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1663,9 @@
       <c r="B53" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -1666,6 +1674,9 @@
       <c r="B54" t="s">
         <v>133</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1673,6 +1684,9 @@
       </c>
       <c r="B55" t="s">
         <v>134</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">

--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Documents\GitHub\OpenBCI\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08322242-310A-4FEE-8571-87BDF137BF75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1DFA8-7AE1-4A89-AB72-BC9F2BBD8C62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="11835" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
   </bookViews>
   <sheets>
     <sheet name="experiments" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>name</t>
   </si>
@@ -454,13 +454,46 @@
   </si>
   <si>
     <t>No Bias celulose and GND</t>
+  </si>
+  <si>
+    <t>20240429_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shorted all channels </t>
+  </si>
+  <si>
+    <t>20240429_2</t>
+  </si>
+  <si>
+    <t>fs = 1000 Hz</t>
+  </si>
+  <si>
+    <t>20240429_3</t>
+  </si>
+  <si>
+    <t>20240429_4</t>
+  </si>
+  <si>
+    <t>20240429_5</t>
+  </si>
+  <si>
+    <t>Lead off measuramentsBias connected 1</t>
+  </si>
+  <si>
+    <t>Lead off measuraments GND connected</t>
+  </si>
+  <si>
+    <t>Lead off measuraments GND and bias connected</t>
+  </si>
+  <si>
+    <t>GND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +511,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -823,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E8C53-10ED-4216-AA70-9DB6CE1D21FB}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1750,63 @@
         <v>139</v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECasals\Documents\GitHub\OpenBCI\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1DFA8-7AE1-4A89-AB72-BC9F2BBD8C62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133064E-C9DD-48DC-AB9F-8237A862E380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="11835" xr2:uid="{8D04D806-0371-4873-9F09-18A7F618BDE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -447,9 +447,6 @@
     <t>Bias and GND</t>
   </si>
   <si>
-    <t>No Bias and GND</t>
-  </si>
-  <si>
     <t>Bias celulose</t>
   </si>
   <si>
@@ -486,7 +483,34 @@
     <t>Lead off measuraments GND and bias connected</t>
   </si>
   <si>
-    <t>GND</t>
+    <t>20240502_1</t>
+  </si>
+  <si>
+    <t>Lead off measuraments GND and Bbias connected</t>
+  </si>
+  <si>
+    <t>Lead off: Bias</t>
+  </si>
+  <si>
+    <t>Lead off: Bias and GND</t>
+  </si>
+  <si>
+    <t>Measure: Bias and GND</t>
+  </si>
+  <si>
+    <t>Measure: GND</t>
+  </si>
+  <si>
+    <t>Lead off: GND</t>
+  </si>
+  <si>
+    <t>20240502_2</t>
+  </si>
+  <si>
+    <t>Measure: Bias Active</t>
+  </si>
+  <si>
+    <t>Measure: Bias Lead-off and GND</t>
   </si>
 </sst>
 </file>
@@ -862,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438E8C53-10ED-4216-AA70-9DB6CE1D21FB}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +898,7 @@
     <col min="2" max="2" width="70.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="54.140625" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -1681,7 +1705,7 @@
         <v>125</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1692,7 +1716,7 @@
         <v>131</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,7 +1738,7 @@
         <v>133</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1749,7 @@
         <v>134</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,7 +1760,7 @@
         <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1752,21 +1776,21 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
         <v>143</v>
       </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>88</v>
@@ -1774,35 +1798,57 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
